--- a/wsl/wsl.xlsx
+++ b/wsl/wsl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/gz25/vivo/tp_shop/wsl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaobao/Desktop/二期项目/tp_shop/wsl/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="680" windowWidth="23580" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="4860" yWindow="460" windowWidth="23580" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -581,6 +581,9 @@
     <t>商品库存</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>无符号</t>
   </si>
   <si>
@@ -763,10 +766,6 @@
     <rPh sb="16" eb="17">
       <t>zhong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>stores</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1396,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="24" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1741,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>58</v>
@@ -1945,7 +1944,7 @@
     <row r="32" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2052,16 +2051,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
@@ -2276,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I49" s="12"/>
     </row>
@@ -2285,7 +2284,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>10</v>
@@ -2299,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>10</v>
@@ -2320,16 +2319,16 @@
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>10</v>
@@ -2347,10 +2346,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>10</v>
@@ -2368,10 +2367,10 @@
     </row>
     <row r="54" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>10</v>
@@ -2411,7 +2410,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2476,37 +2475,37 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -2518,16 +2517,16 @@
     </row>
     <row r="62" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="D62" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
@@ -2535,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I62" s="1"/>
     </row>
@@ -2563,7 +2562,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -2628,13 +2627,13 @@
     </row>
     <row r="68" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>34</v>
@@ -2643,7 +2642,7 @@
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I68" s="1"/>
     </row>

--- a/wsl/wsl.xlsx
+++ b/wsl/wsl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaobao/Desktop/二期项目/tp_shop/wsl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/gz25/github/tp_shop/wsl/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
   <si>
     <t>字段</t>
   </si>
@@ -147,16 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>支持频率</t>
-    <rPh sb="0" eb="1">
-      <t>zhi c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pin lü</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>连接支持</t>
     <rPh sb="0" eb="1">
       <t>lian jie</t>
@@ -265,9 +255,6 @@
     <t>capacity</t>
   </si>
   <si>
-    <t>frequency</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -341,10 +328,6 @@
   </si>
   <si>
     <t>varchar(100)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -666,10 +649,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(255)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -766,6 +745,10 @@
     <rPh sb="16" eb="17">
       <t>zhong</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgs</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1393,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="24" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1389,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -1471,13 +1454,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="35" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>34</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -1489,13 +1472,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="35" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -1507,13 +1490,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -1525,13 +1508,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -1543,13 +1526,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -1561,13 +1544,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -1579,13 +1562,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -1597,13 +1580,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -1615,13 +1598,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -1633,13 +1616,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -1651,13 +1634,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -1669,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -1690,318 +1673,323 @@
         <v>48</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C20" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B24" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D24" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E24" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G24" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H24" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B25" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D25" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E25" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="43" t="s">
+      <c r="G25" s="37"/>
+      <c r="H25" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="45"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="45"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
       <c r="H29" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>7</v>
+      <c r="F34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
       <c r="H35" s="12" t="s">
         <v>85</v>
       </c>
@@ -2015,83 +2003,71 @@
         <v>87</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11">
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
         <v>0</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="H38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="51"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>94</v>
-      </c>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2102,100 +2078,110 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="6"/>
+      <c r="A42" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="20"/>
+      <c r="A43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>12</v>
-      </c>
+      <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G44" s="22"/>
-      <c r="H44" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="H44" s="22"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
       <c r="H45" s="22"/>
       <c r="I45" s="12"/>
     </row>
@@ -2207,32 +2193,28 @@
         <v>101</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="22">
-        <v>0</v>
-      </c>
+      <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="C47" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -2241,19 +2223,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="C48" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="G48" s="22">
+        <v>1</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2264,7 +2252,7 @@
         <v>108</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>11</v>
@@ -2272,10 +2260,10 @@
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="I49" s="12"/>
     </row>
@@ -2294,9 +2282,7 @@
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
+      <c r="G50" s="22"/>
       <c r="H50" s="22" t="s">
         <v>112</v>
       </c>
@@ -2317,18 +2303,18 @@
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22" t="s">
-        <v>115</v>
-      </c>
+      <c r="G51" s="22">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>10</v>
@@ -2344,49 +2330,39 @@
       <c r="H52" s="22"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+    <row r="53" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22">
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24">
         <v>0</v>
       </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24">
-        <v>0</v>
-      </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="24"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2397,253 +2373,253 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="26" t="s">
-        <v>14</v>
+      <c r="D59" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12" t="s">
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="B61" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11">
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="B65" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B67" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15" t="s">
+      <c r="C67" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="D67" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="22"/>
-      <c r="H67" s="26" t="s">
-        <v>14</v>
-      </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="30" t="s">
-        <v>138</v>
-      </c>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2658,25 +2634,14 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/wsl/wsl.xlsx
+++ b/wsl/wsl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="144">
   <si>
     <t>字段</t>
   </si>
@@ -564,9 +564,6 @@
     <t>商品库存</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>无符号</t>
   </si>
   <si>
@@ -749,6 +746,18 @@
   </si>
   <si>
     <t>imgs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:16G；1:32G；2:64G；3:128G；4:其他；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：香槟金；1:磨砂黑；2:玫瑰金；3:流光白；4:星空灰；5:其他；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stocks</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1099,6 +1108,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1376,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="24" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1715,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>28</v>
       </c>
@@ -1701,12 +1733,12 @@
       <c r="G17" s="35"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>56</v>
@@ -1719,7 +1751,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>30</v>
       </c>
@@ -1737,7 +1769,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>50</v>
       </c>
@@ -1757,159 +1789,207 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+    <row r="22" spans="1:13" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="43" t="s">
+      <c r="G25" s="60"/>
+      <c r="H25" s="60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61">
+        <v>0</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="45"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61">
+        <v>0</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="45" t="s">
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="45" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
+    </row>
+    <row r="31" spans="1:13" ht="25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2016,16 +2096,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="C37" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="50" t="s">
         <v>138</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
@@ -2240,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I48" s="12"/>
     </row>
@@ -2249,7 +2329,7 @@
         <v>107</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>10</v>
@@ -2263,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>10</v>
@@ -2284,16 +2364,16 @@
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>10</v>
@@ -2311,10 +2391,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>10</v>
@@ -2332,10 +2412,10 @@
     </row>
     <row r="53" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>118</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>10</v>
@@ -2375,7 +2455,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2440,37 +2520,37 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="D60" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -2482,16 +2562,16 @@
     </row>
     <row r="61" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="C61" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -2499,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I61" s="1"/>
     </row>
@@ -2527,7 +2607,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -2592,13 +2672,13 @@
     </row>
     <row r="67" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="C67" s="32" t="s">
         <v>132</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>133</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>33</v>
@@ -2607,7 +2687,7 @@
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I67" s="1"/>
     </row>

--- a/wsl/wsl.xlsx
+++ b/wsl/wsl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="145">
   <si>
     <t>字段</t>
   </si>
@@ -758,6 +758,10 @@
   </si>
   <si>
     <t>stocks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1410,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="24" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1511,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>36</v>
